--- a/CancerSVM.xlsx
+++ b/CancerSVM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\CancerAceFiltering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A4A1CE-F774-4D8D-838B-6E4CCCD34A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90662455-F7AF-4F2B-859F-66372B4DBEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="15" xr2:uid="{17001702-3C6F-4149-BC22-539ABEDFA4DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="15" xr2:uid="{17001702-3C6F-4149-BC22-539ABEDFA4DC}"/>
   </bookViews>
   <sheets>
     <sheet name="CancerDT75" sheetId="3" state="hidden" r:id="rId1"/>
@@ -28,8 +28,8 @@
     <sheet name="cancerSVM%15" sheetId="11" state="hidden" r:id="rId13"/>
     <sheet name="cancerSVM%cor" sheetId="12" state="hidden" r:id="rId14"/>
     <sheet name="ace svm%20" sheetId="14" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId16"/>
-    <sheet name="Sheet2" sheetId="21" r:id="rId17"/>
+    <sheet name="Sheet2" sheetId="21" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId17"/>
     <sheet name="ace recur eps svm 20 % " sheetId="17" state="hidden" r:id="rId18"/>
     <sheet name="ace recur eps svm 75 percentile" sheetId="18" state="hidden" r:id="rId19"/>
     <sheet name="ace recur eps 25%" sheetId="19" state="hidden" r:id="rId20"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="83">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -208,12 +208,291 @@
   <si>
     <t>126.6 4.8 0.8 72.8</t>
   </si>
+  <si>
+    <t>benign</t>
+  </si>
+  <si>
+    <t>malignant</t>
+  </si>
+  <si>
+    <t>PREDICTED</t>
+  </si>
+  <si>
+    <t>SVM with L1PCA dist based Training Data Curation</t>
+  </si>
+  <si>
+    <t>SVM on Original File without Data Curation</t>
+  </si>
+  <si>
+    <t>TPR=tp/(tp+fn)</t>
+  </si>
+  <si>
+    <t>FPR=fp/(fp+tn)</t>
+  </si>
+  <si>
+    <t>TNR=tn/(tn+fp)</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Miss rate, type II err</t>
+  </si>
+  <si>
+    <t>pr of false alarm, type 1err</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Recall, power</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Power/ True Positive Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          = 0.99</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-Power/ False Negative Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                   = 0.01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Power/ True Positive Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          =0.97</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-Power/ False Negative Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                   = 0.03</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1-Probability of False Alarm/   True Negative Rate  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     = 0.94</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prob of False Alarm/ False Positive Rate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                   = 0.06</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hamming Loss   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        = 0.03   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hamming Loss   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        = 0.04   </t>
+    </r>
+  </si>
+  <si>
+    <t>FNR=fn/(fn+tp); 1-TNR</t>
+  </si>
+  <si>
+    <t>TPR</t>
+  </si>
+  <si>
+    <t>FNR</t>
+  </si>
+  <si>
+    <t>TNR</t>
+  </si>
+  <si>
+    <t>FPR</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1-Probability of False Alarm/   True Negative Rate  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     = 0.96</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prob of False Alarm/ False Positive Rate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                   = 0.04</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,8 +572,21 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +674,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +1064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -899,6 +1203,80 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="16" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -941,6 +1319,24 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -950,7 +1346,13 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2602,7 +3004,7 @@
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
@@ -6115,7 +6517,7 @@
       <selection activeCell="W12" sqref="W12:AD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
@@ -10002,9 +10404,9 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1">
@@ -10012,16 +10414,16 @@
         <v>0</v>
       </c>
       <c r="L1" s="39"/>
-      <c r="M1" s="82" t="s">
+      <c r="M1" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
       <c r="U1" s="28" t="s">
         <v>12</v>
       </c>
@@ -10972,17 +11374,17 @@
         <v>2</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="75" t="s">
+      <c r="M11" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="77"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="103"/>
       <c r="W11" s="31"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="30"/>
@@ -11091,16 +11493,16 @@
       <c r="K13" s="4">
         <v>6.8292679999999999</v>
       </c>
-      <c r="W13" s="83" t="s">
+      <c r="W13" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="85"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="110"/>
+      <c r="Z13" s="110"/>
+      <c r="AA13" s="110"/>
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="110"/>
+      <c r="AD13" s="111"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="3">
@@ -13930,10 +14332,10 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
@@ -14791,22 +15193,22 @@
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="M1" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -18697,22 +19099,22 @@
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="M1" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -22600,12 +23002,12 @@
       <selection activeCell="L2" sqref="L2:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
@@ -23042,61 +23444,349 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3785AFE-4517-4239-AB9A-9F7F55BC8000}">
-  <dimension ref="B1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61DED9F-66E8-4513-8DF6-9CB74C43AF96}">
+  <dimension ref="B1:L23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.77734375" style="74"/>
+    <col min="3" max="3" width="9.44140625" style="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="74" customWidth="1"/>
+    <col min="5" max="5" width="33.77734375" style="74" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="74" customWidth="1"/>
+    <col min="7" max="9" width="8.77734375" style="74"/>
+    <col min="10" max="10" width="27" style="74" customWidth="1"/>
+    <col min="11" max="11" width="33.77734375" style="74" customWidth="1"/>
+    <col min="12" max="12" width="13" style="74" customWidth="1"/>
+    <col min="13" max="16384" width="8.77734375" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="70" customFormat="1"/>
-    <row r="2" spans="2:4">
-      <c r="B2" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="30"/>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="89">
-        <v>2.7317075000000002</v>
-      </c>
-      <c r="C4" s="89">
-        <v>3.609756</v>
-      </c>
-      <c r="D4" s="89">
-        <v>24.324317211468028</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="D10" s="69"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="D13" s="71" t="s">
-        <v>50</v>
+    <row r="1" spans="2:12" ht="15" thickBot="1"/>
+    <row r="2" spans="2:12" ht="15" thickBot="1">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="122" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="123"/>
+      <c r="F2" s="76"/>
+      <c r="J2" s="122" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="123"/>
+    </row>
+    <row r="3" spans="2:12" ht="14.55" customHeight="1">
+      <c r="D3" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="115"/>
+      <c r="F3" s="86"/>
+      <c r="J3" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="115"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" thickBot="1">
+      <c r="D4" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="83"/>
+      <c r="J4" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="14.55" customHeight="1">
+      <c r="B5" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="79">
+        <v>126.6</v>
+      </c>
+      <c r="E5" s="80">
+        <v>4.8</v>
+      </c>
+      <c r="F5" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="79">
+        <v>127.2</v>
+      </c>
+      <c r="K5" s="80">
+        <v>4.2</v>
+      </c>
+      <c r="L5" s="116" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15" thickBot="1">
+      <c r="B6" s="113"/>
+      <c r="C6" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="79">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="80">
+        <v>72.8</v>
+      </c>
+      <c r="F6" s="117"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="79">
+        <v>3.2</v>
+      </c>
+      <c r="K6" s="80">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="L6" s="117"/>
+    </row>
+    <row r="7" spans="2:12" ht="28.8">
+      <c r="D7" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="84"/>
+      <c r="J7" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="95" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="43.8" thickBot="1">
+      <c r="D8" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="85"/>
+      <c r="J8" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="97" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="G9" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="G10" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="C12" s="74">
+        <v>0</v>
+      </c>
+      <c r="D12" s="74">
+        <v>1</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="75">
+        <f>E6/(E6+D6)</f>
+        <v>0.98913043478260876</v>
+      </c>
+      <c r="G12" s="74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15" thickBot="1">
+      <c r="B13" s="74">
+        <v>0</v>
+      </c>
+      <c r="C13" s="74">
+        <v>127.2</v>
+      </c>
+      <c r="D13" s="74">
+        <v>4.2</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="75">
+        <f>E5/(E5+D5)</f>
+        <v>3.6529680365296802E-2</v>
+      </c>
+      <c r="G13" s="74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="74">
+        <v>1</v>
+      </c>
+      <c r="C14" s="74">
+        <v>3.2</v>
+      </c>
+      <c r="D14" s="74">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E14" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="75">
+        <f>D5/(D5+E5)</f>
+        <v>0.96347031963470309</v>
+      </c>
+      <c r="G14" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="89"/>
+    </row>
+    <row r="15" spans="2:12" ht="15" thickBot="1">
+      <c r="B15" s="74">
+        <v>2</v>
+      </c>
+      <c r="C15" s="93">
+        <v>0.95652199999999998</v>
+      </c>
+      <c r="D15" s="93">
+        <v>4.3478000000000003E-2</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="75">
+        <f>D6/(D6+E6)</f>
+        <v>1.0869565217391306E-2</v>
+      </c>
+      <c r="G15" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="90">
+        <f>(D5+E6)/(D5+E5+E6+D6)</f>
+        <v>0.97268292682926816</v>
+      </c>
+      <c r="J15" s="91">
+        <f>(J5+K6)/SUM(J5:K6)</f>
+        <v>0.96390243902439032</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="74">
+        <v>3</v>
+      </c>
+      <c r="C16" s="93">
+        <v>0.96803700000000004</v>
+      </c>
+      <c r="D16" s="93">
+        <v>3.1962999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="I17" s="74">
+        <f>1-I15</f>
+        <v>2.7317073170731843E-2</v>
+      </c>
+      <c r="J17" s="74">
+        <f>1-J15</f>
+        <v>3.6097560975609677E-2</v>
+      </c>
+      <c r="K17" s="74">
+        <f>(J17-I17)/J17*100</f>
+        <v>24.324324324323783</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="C19" s="74">
+        <v>0</v>
+      </c>
+      <c r="D19" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="74">
+        <v>0</v>
+      </c>
+      <c r="C20" s="74">
+        <v>126.6</v>
+      </c>
+      <c r="D20" s="74">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="74">
+        <v>1</v>
+      </c>
+      <c r="C21" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="74">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="74">
+        <v>2</v>
+      </c>
+      <c r="C22" s="93">
+        <v>0.98912999999999995</v>
+      </c>
+      <c r="D22" s="93">
+        <v>1.0869999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="74">
+        <v>3</v>
+      </c>
+      <c r="C23" s="93">
+        <v>0.96347000000000005</v>
+      </c>
+      <c r="D23" s="93">
+        <v>3.653E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="8">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -23104,30 +23794,112 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61DED9F-66E8-4513-8DF6-9CB74C43AF96}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3785AFE-4517-4239-AB9A-9F7F55BC8000}">
+  <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="71">
-        <v>126.6</v>
-      </c>
-      <c r="B1">
-        <v>4.8</v>
-      </c>
-      <c r="C1">
-        <v>0.8</v>
-      </c>
-      <c r="D1">
-        <v>72.8</v>
+    <row r="1" spans="2:6" s="70" customFormat="1"/>
+    <row r="2" spans="2:6">
+      <c r="B2" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="72">
+        <v>2.7317075000000002</v>
+      </c>
+      <c r="C4" s="72">
+        <v>3.609756</v>
+      </c>
+      <c r="D4" s="72">
+        <v>24.324317211468028</v>
+      </c>
+      <c r="E4">
+        <f>100-2.73</f>
+        <v>97.27</v>
+      </c>
+      <c r="F4" s="87">
+        <f>100-C4</f>
+        <v>96.390243999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="D10" s="69"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="D13" s="71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="121">
+        <v>0.96803652968036502</v>
+      </c>
+      <c r="C19">
+        <v>3.1963470319634701E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.95652173913043403</v>
+      </c>
+      <c r="E19">
+        <v>4.3478260869565202E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="121">
+        <v>0.96347031963470298</v>
+      </c>
+      <c r="C20">
+        <v>3.6529680365296802E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.98913043478260798</v>
+      </c>
+      <c r="E20">
+        <v>1.0869565217391301E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -23139,10 +23911,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="6" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
@@ -23580,11 +24352,11 @@
       <selection activeCell="L15" sqref="L15:O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="6" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" customWidth="1"/>
-    <col min="15" max="15" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" customWidth="1"/>
+    <col min="15" max="15" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
@@ -23831,10 +24603,10 @@
       <c r="D15" s="4">
         <v>4.390244</v>
       </c>
-      <c r="M15" s="87" t="s">
+      <c r="M15" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="N15" s="88"/>
+      <c r="N15" s="120"/>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
@@ -23895,10 +24667,10 @@
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="87" t="s">
+      <c r="M19" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="88"/>
+      <c r="N19" s="120"/>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1">
       <c r="A20" s="2"/>
@@ -24081,7 +24853,7 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
@@ -27629,12 +28401,12 @@
       <selection activeCell="L2" sqref="L2:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="6" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1796875" customWidth="1"/>
-    <col min="15" max="15" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" customWidth="1"/>
+    <col min="15" max="15" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
@@ -27855,10 +28627,10 @@
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="87" t="s">
+      <c r="M13" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="88"/>
+      <c r="N13" s="120"/>
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1">
       <c r="A14" s="2"/>
@@ -28193,7 +28965,7 @@
       <selection activeCell="W12" sqref="W12:AD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -29133,17 +29905,17 @@
         <v>4.88</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="75" t="s">
+      <c r="M10" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="77"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="103"/>
       <c r="W10" s="31"/>
       <c r="X10" s="30"/>
       <c r="Y10" s="30"/>
@@ -29220,23 +29992,23 @@
         <v>8</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="M12" s="72" t="s">
+      <c r="M12" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="74"/>
-      <c r="W12" s="78" t="s">
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="100"/>
+      <c r="W12" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79"/>
-      <c r="AD12" s="80"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="105"/>
+      <c r="AA12" s="105"/>
+      <c r="AB12" s="105"/>
+      <c r="AC12" s="105"/>
+      <c r="AD12" s="106"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="3">
@@ -32150,7 +32922,7 @@
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
@@ -36043,22 +36815,22 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="M1" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -39949,22 +40721,22 @@
       <selection activeCell="Q22" sqref="Q22:R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="M1" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
       <c r="U1" s="10" t="s">
         <v>12</v>
       </c>
@@ -43842,23 +44614,23 @@
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="39"/>
-      <c r="M1" s="82" t="s">
+      <c r="M1" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
       <c r="U1" s="28" t="s">
         <v>12</v>
       </c>
@@ -44809,17 +45581,17 @@
         <v>2</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="75" t="s">
+      <c r="M11" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="77"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="103"/>
       <c r="W11" s="31"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="30"/>
@@ -44928,16 +45700,16 @@
       <c r="K13" s="4">
         <v>6.8292679999999999</v>
       </c>
-      <c r="W13" s="83" t="s">
+      <c r="W13" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="85"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="110"/>
+      <c r="Z13" s="110"/>
+      <c r="AA13" s="110"/>
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="110"/>
+      <c r="AD13" s="111"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickBot="1">
       <c r="A14" s="3">
@@ -44973,13 +45745,13 @@
       <c r="K14" s="4">
         <v>6.3414630000000001</v>
       </c>
-      <c r="M14" s="72" t="s">
+      <c r="M14" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="74"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="100"/>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="3">
@@ -47833,7 +48605,7 @@
       <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
@@ -51714,7 +52486,7 @@
       <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
